--- a/benchmark/gramian.xlsx
+++ b/benchmark/gramian.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
@@ -48,17 +48,17 @@
     <t>Git  commit</t>
   </si>
   <si>
-    <t>b6030cf</t>
-  </si>
-  <si>
-    <t>BLAS</t>
-  </si>
-  <si>
-    <t>4933ac9</t>
-  </si>
-  <si>
     <t>The "measurements" sheet contains time to calculate a Gramian matrix from a 1000 by 1200 matrix containing random values. The benchmark code is located in sec/benchmark_test.c, test_banchmark_gramian.
 The text like `c830f4e` in the brackets indicates the GIT commit that was used to run the benchmark.</t>
+  </si>
+  <si>
+    <t>278313f</t>
+  </si>
+  <si>
+    <t>Optimized</t>
+  </si>
+  <si>
+    <t>Speedup factor</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -122,6 +122,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0"/>
+    <sheetView zoomScale="162" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -448,7 +451,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -468,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -499,22 +502,18 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>8.7499400000000005</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.18876299999999999</v>
-      </c>
+        <v>0.190998</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -523,11 +522,9 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
-        <v>8.7973999999999997</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.15193000000000001</v>
-      </c>
+        <v>0.17870900000000001</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -536,11 +533,9 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
-        <v>8.8528000000000002</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.16008</v>
-      </c>
+        <v>0.20787900000000001</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -549,11 +544,9 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
-        <v>8.8280499999999993</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.16067200000000001</v>
-      </c>
+        <v>0.20230100000000001</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -562,11 +555,9 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
-        <v>8.7956400000000006</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.153695</v>
-      </c>
+        <v>0.18679299999999999</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -588,12 +579,9 @@
       </c>
       <c r="B9" s="3">
         <f>AVERAGE(B3:B7)</f>
-        <v>8.804765999999999</v>
-      </c>
-      <c r="C9" s="3">
-        <f>AVERAGE(C3:C7)</f>
-        <v>0.16302800000000001</v>
-      </c>
+        <v>0.19333600000000001</v>
+      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -606,22 +594,22 @@
       </c>
       <c r="B10" s="3">
         <f>_xlfn.STDEV.S(B3:B7)/SQRT(COUNT(B3:B7))</f>
-        <v>1.7310173193818609E-2</v>
-      </c>
-      <c r="C10" s="3">
-        <f>_xlfn.STDEV.S(C3:C7)/SQRT(COUNT(C3:C7))</f>
-        <v>6.6588368278551434E-3</v>
-      </c>
+        <v>5.2635363397624622E-3</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="C12">
         <f>B9/0.16</f>
-        <v>55.029787499999991</v>
+        <v>1.20835</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/gramian.xlsx
+++ b/benchmark/gramian.xlsx
@@ -472,7 +472,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,7 +513,9 @@
       <c r="B3" s="3">
         <v>0.190998</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>0.12695500000000001</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -524,7 +526,9 @@
       <c r="B4" s="3">
         <v>0.17870900000000001</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>0.127279</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -535,7 +539,9 @@
       <c r="B5" s="3">
         <v>0.20787900000000001</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>0.117008</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -546,7 +552,9 @@
       <c r="B6" s="3">
         <v>0.20230100000000001</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>0.127441</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -557,7 +565,9 @@
       <c r="B7" s="3">
         <v>0.18679299999999999</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>0.145928</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -581,7 +591,10 @@
         <f>AVERAGE(B3:B7)</f>
         <v>0.19333600000000001</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3">
+        <f>AVERAGE(C3:C7)</f>
+        <v>0.12892220000000001</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -596,7 +609,10 @@
         <f>_xlfn.STDEV.S(B3:B7)/SQRT(COUNT(B3:B7))</f>
         <v>5.2635363397624622E-3</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3">
+        <f>_xlfn.STDEV.S(C3:C7)/SQRT(COUNT(C3:C7))</f>
+        <v>4.6899324664647357E-3</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -608,8 +624,8 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <f>B9/0.16</f>
-        <v>1.20835</v>
+        <f>B9/C9</f>
+        <v>1.499633112062934</v>
       </c>
     </row>
   </sheetData>
